--- a/excel/sales - Copy.xlsx
+++ b/excel/sales - Copy.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2caeee55571d19ad/Desktop/Developia/developia-ferdi-01-main/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_3A9571B6D35056C37C2A15D04B5ED87656CD8F97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E248DDB-6982-4B93-A52A-214367A95400}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_3A9571B6D35056C37C2A15D04B5ED87656CD8F97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6448F7-F38C-4107-8C9E-159C59524AE7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Satis" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Satis" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -474,11 +475,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC5DB06-662B-44A4-9989-10D583E5DE7B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
